--- a/Assets/Levels/Excel/Languages/Cplus.xlsx
+++ b/Assets/Levels/Excel/Languages/Cplus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_MINE\Unity-AssembleWords\Assets\Levels\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_MINE\Unity6-DictionaryForDevelopers\Assets\Levels\Excel\Languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A1B8B6-073D-4D37-B3D6-BC79FE25F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC53284-7AA3-4C59-A974-A328091A5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="-15810" windowWidth="28575" windowHeight="14835" xr2:uid="{D5FF3876-03B5-4F82-99F6-B87BF6FCF0F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5FF3876-03B5-4F82-99F6-B87BF6FCF0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cplus" sheetId="2" r:id="rId1"/>
@@ -2181,7 +2181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2189,7 +2189,7 @@
     <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="142.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="166.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
